--- a/project/Assets/StreamingAssets/Data/Excels/Choose.xlsx
+++ b/project/Assets/StreamingAssets/Data/Excels/Choose.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitclone\YesOrNo\Assets\StreamingAssets\Data\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitclone\YesOrNo\project\Assets\StreamingAssets\Data\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD95380-6398-4294-AAC7-509174D94227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4F5AB3-A589-48A4-854E-9540D4963703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6036" yWindow="3828" windowWidth="22848" windowHeight="5760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Choose" sheetId="1" r:id="rId1"/>
@@ -584,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -705,7 +705,7 @@
         <v>42</v>
       </c>
       <c r="G4">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
@@ -734,7 +734,7 @@
         <v>47</v>
       </c>
       <c r="G5">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -757,7 +757,7 @@
         <v>50</v>
       </c>
       <c r="G6">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s">
         <v>28</v>
@@ -786,7 +786,7 @@
         <v>53</v>
       </c>
       <c r="G7">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -838,7 +838,7 @@
         <v>59</v>
       </c>
       <c r="G9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
         <v>37</v>
@@ -864,7 +864,7 @@
         <v>62</v>
       </c>
       <c r="G10">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J10" t="s">
         <v>40</v>
